--- a/4_Rating.xlsx
+++ b/4_Rating.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{1C5A802C-9E12-9642-81BF-202D7BBFE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0067CBA-15B4-6147-AD4C-D66B400CEAE7}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{1C5A802C-9E12-9642-81BF-202D7BBFE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C6A1C-8447-1244-B4EF-14233B2D418A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>How do you feel about this image?</t>
   </si>
   <si>
-    <t>你对这个形象有什么感觉?</t>
-  </si>
-  <si>
     <t>Stimuli/Raw_Neg.BMP</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Stimuli/Raw_Trig.BMP</t>
+  </si>
+  <si>
+    <t>你对这个面孔有什么感觉?（'– '表示消极, '+'表示积极）</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,21 +475,21 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <v>0.4</v>
@@ -498,15 +498,18 @@
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/4_Rating.xlsx
+++ b/4_Rating.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{1C5A802C-9E12-9642-81BF-202D7BBFE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE2C6A1C-8447-1244-B4EF-14233B2D418A}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{1C5A802C-9E12-9642-81BF-202D7BBFE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32575A61-3A95-4493-A3C7-5D22710C8EA1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>FearRatingInstTextCN</t>
   </si>
   <si>
-    <t>How do you feel about this image?</t>
-  </si>
-  <si>
     <t>Stimuli/Raw_Neg.BMP</t>
   </si>
   <si>
@@ -49,7 +46,10 @@
     <t>Stimuli/Raw_Trig.BMP</t>
   </si>
   <si>
-    <t>你对这个面孔有什么感觉?（'– '表示消极, '+'表示积极）</t>
+    <t>How do you feel about this face?</t>
+  </si>
+  <si>
+    <t>你对这个面孔有什么感觉?（'– '表示负面恐怖的, '+'表示积极快乐的）</t>
   </si>
 </sst>
 </file>
@@ -175,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,20 +442,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.6" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="8"/>
+    <col min="1" max="1" width="33.3125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.15625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.15625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.83984375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="18.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,40 +469,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>0.4</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8">
         <v>0.9</v>

--- a/4_Rating.xlsx
+++ b/4_Rating.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{1C5A802C-9E12-9642-81BF-202D7BBFE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32575A61-3A95-4493-A3C7-5D22710C8EA1}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{1C5A802C-9E12-9642-81BF-202D7BBFE009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C4D4B9-BC07-4360-988F-F49F73F8F37D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6945" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="PingFang SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PingFang SC Regular"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -131,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -152,12 +164,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -442,17 +460,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15.6" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="17.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.3125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.15625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.15625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.83984375" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.83984375" style="8"/>
+    <col min="1" max="1" width="33.3125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.15625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="25.15625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.83984375" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="18.3" x14ac:dyDescent="0.55000000000000004">
@@ -469,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="90.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -479,7 +497,7 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -490,25 +508,26 @@
       <c r="B3" s="6">
         <v>0.4</v>
       </c>
-      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>0.6</v>
       </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>